--- a/biology/Médecine/Musée_hospitalier/Musée_hospitalier.xlsx
+++ b/biology/Médecine/Musée_hospitalier/Musée_hospitalier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_hospitalier</t>
+          <t>Musée_hospitalier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un musée hospitalier est le plus souvent un ancien hôpital transformé en musée, souvent un musée d'histoire de la médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_hospitalier</t>
+          <t>Musée_hospitalier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Associations de sauvegarde du patrimoine hospitalier et médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Conservatoire du patrimoine médical, Marseille (Bouches-du-Rhône)
-Conservatoire du patrimoine hospitalier, Rennes[1] (Ille-et-Vilaine)
-Association d’histoire des hôpitaux et du patrimoine santé de Nantes[2] (AHHPSN), Nantes, (Loire-Atlantique)
-Association des Amis du Musée de la Faculté de Médecine de Nancy[3] (AAMFMN), Nancy, (Meurthe-et-Moselle)
-Association du Musée hospitalier régional, Lille (Nord)[4]
-Association Abigaïl Mathieu, Chalon-sur-Saône (Saône-et-Loire)[5]
+Conservatoire du patrimoine hospitalier, Rennes (Ille-et-Vilaine)
+Association d’histoire des hôpitaux et du patrimoine santé de Nantes (AHHPSN), Nantes, (Loire-Atlantique)
+Association des Amis du Musée de la Faculté de Médecine de Nancy (AAMFMN), Nancy, (Meurthe-et-Moselle)
+Association du Musée hospitalier régional, Lille (Nord)
+Association Abigaïl Mathieu, Chalon-sur-Saône (Saône-et-Loire)
 Association des Amis du musée de l'AP-HP (ADAMAP) (Paris)</t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_hospitalier</t>
+          <t>Musée_hospitalier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,16 +561,87 @@
           <t>Ressources, documentation sur le patrimoine hospitalier et médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Plusieurs études et colloques ont eu lieu sur ces sujets. Ressources documentaires et actualités sont rassemblées ci-dessous:
-Études
-Patrimoine hospitalier à travers l’Europe : un dilemme entre restructuration ou désaffectation, revue des patrimoines [1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs études et colloques ont eu lieu sur ces sujets. Ressources documentaires et actualités sont rassemblées ci-dessous:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Musée_hospitalier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_hospitalier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ressources, documentation sur le patrimoine hospitalier et médical</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Patrimoine hospitalier à travers l’Europe : un dilemme entre restructuration ou désaffectation, revue des patrimoines 
 Valorisation du patrimoine hospitalier (PDF)
 Pour un renouveau de la muséographie hospitalière. Réflexions de Jacques Poisat sur un domaine muséal peu connu. Réflexions de Jacques Poisat sur un domaine muséal peu connu.
-Du passé au futur, les nouveaux enjeux du patrimoine hospitalier, Jacques Poisat, 1997, lettre de l'OCIM
-Colloques
-14 avril 2016, Rencontres du patrimoine hospitalier : « L’explosion technologique : un défi pour la sauvegarde du patrimoine hospitalier. Comment les collections muséales témoignent – elles des avancées technologiques médicales ?»</t>
+Du passé au futur, les nouveaux enjeux du patrimoine hospitalier, Jacques Poisat, 1997, lettre de l'OCIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Musée_hospitalier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_hospitalier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ressources, documentation sur le patrimoine hospitalier et médical</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Colloques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>14 avril 2016, Rencontres du patrimoine hospitalier : « L’explosion technologique : un défi pour la sauvegarde du patrimoine hospitalier. Comment les collections muséales témoignent – elles des avancées technologiques médicales ?»</t>
         </is>
       </c>
     </row>
